--- a/FTXpath.xlsx
+++ b/FTXpath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Column</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>http://markets.ft.com/data/equities/tearsheet/profile?s=DEB:LSE</t>
+  </si>
+  <si>
+    <t>http://markets.ft.com/data/equities/tearsheet/financials?s=DEB:LSE&amp;subView=IncomeStatement&amp;periodType=a</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -955,11 +958,18 @@
         <v>78</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E26" r:id="rId2"/>
+    <hyperlink ref="E24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/FTXpath.xlsx
+++ b/FTXpath.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbeu.adroot.hsbc\gb001\Redir GB USERS GBM\choudhd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbeu.adroot.hsbc\gb001\Redir GB Users GBM\choudhd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="340">
   <si>
     <t>Column</t>
   </si>
@@ -95,9 +95,6 @@
     <t>PreviousClose</t>
   </si>
   <si>
-    <t>Previous Dat Close Price</t>
-  </si>
-  <si>
     <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[2]/div[1]/table/tbody/tr[6]/td</t>
   </si>
   <si>
@@ -266,14 +263,794 @@
     <t>http://markets.ft.com/data/equities/tearsheet/profile?s=DEB:LSE</t>
   </si>
   <si>
+    <t>Income Statement Annual</t>
+  </si>
+  <si>
+    <t>Income Statement Currency</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/span/text()</t>
+  </si>
+  <si>
+    <t>Statement Date</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/thead/tr/th[1]</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/thead/tr/th[2]</t>
+  </si>
+  <si>
+    <t>TotalRevenue</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[2]/td[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[4]/td[1]</t>
+  </si>
+  <si>
+    <t>Cost Of Revenue Total</t>
+  </si>
+  <si>
+    <t>CoRT</t>
+  </si>
+  <si>
+    <t>SGAT</t>
+  </si>
+  <si>
+    <t>Selling, General and Admin expences Total</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[5]/td[1]</t>
+  </si>
+  <si>
+    <t>Dep_Amo</t>
+  </si>
+  <si>
+    <t>Depreciation /Amortization</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[6]/td[1]</t>
+  </si>
+  <si>
+    <t>UnusualExp</t>
+  </si>
+  <si>
+    <t>Unusual expense (Income)</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[7]/td[1]</t>
+  </si>
+  <si>
+    <t>OOExpT</t>
+  </si>
+  <si>
+    <t>Other Operating Expenses Total</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[8]/td[1]</t>
+  </si>
+  <si>
+    <t>TOprExp</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[9]/td[1]</t>
+  </si>
+  <si>
+    <t>OprIncome</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[10]/td[1]</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other,net</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[11]/td[1]</t>
+  </si>
+  <si>
     <t>http://markets.ft.com/data/equities/tearsheet/financials?s=DEB:LSE&amp;subView=IncomeStatement&amp;periodType=a</t>
+  </si>
+  <si>
+    <t>NetIncBTax</t>
+  </si>
+  <si>
+    <t>Net Income before Taxes</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[13]/td[1]</t>
+  </si>
+  <si>
+    <t>PfIncTax</t>
+  </si>
+  <si>
+    <t>Provision for Income Taxes</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[14]/td[1]</t>
+  </si>
+  <si>
+    <t>NetIncATax</t>
+  </si>
+  <si>
+    <t>Net Income After Taxes</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[15]/td[1]</t>
+  </si>
+  <si>
+    <t>MinInt</t>
+  </si>
+  <si>
+    <t>Minority Interest</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[16]/td[1]</t>
+  </si>
+  <si>
+    <t>NetIncBEI</t>
+  </si>
+  <si>
+    <t>Net Income before extra.Items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[17]/td[1]</t>
+  </si>
+  <si>
+    <t>TEI</t>
+  </si>
+  <si>
+    <t>Total Extraordinary Items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[18]/td[1]</t>
+  </si>
+  <si>
+    <t>NetIncome</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[19]/td[1]</t>
+  </si>
+  <si>
+    <t>IncTCexcEI</t>
+  </si>
+  <si>
+    <t>Income Available to Common excluding extraordinary Income</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[20]/td[1]</t>
+  </si>
+  <si>
+    <t>IncTCincEI</t>
+  </si>
+  <si>
+    <t>Income Available to Common including extraordinary Income</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[21]/td[1]</t>
+  </si>
+  <si>
+    <t>PrimaryShares</t>
+  </si>
+  <si>
+    <t>Basic/primary weighted average shares</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[23]/td[1]</t>
+  </si>
+  <si>
+    <t>EPSeEI</t>
+  </si>
+  <si>
+    <t>Basic/primary eps excl. extra items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[24]/td[1]</t>
+  </si>
+  <si>
+    <t>EPSiEI</t>
+  </si>
+  <si>
+    <t>Basic/primary eps incl. extra items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[25]/td[1]</t>
+  </si>
+  <si>
+    <t>DiluationAdj</t>
+  </si>
+  <si>
+    <t>Dilution Adjustment</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[26]/td[1]</t>
+  </si>
+  <si>
+    <t>DWAS</t>
+  </si>
+  <si>
+    <t>Diluted weighted average shares</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[27]/td[1]</t>
+  </si>
+  <si>
+    <t>DEPSeEI</t>
+  </si>
+  <si>
+    <t>Diluted eps excl. extra items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[28]/td[1]</t>
+  </si>
+  <si>
+    <t>DEPSiEI</t>
+  </si>
+  <si>
+    <t>Diluted eps incl. extra items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[29]/td[1]</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>DPS - common stock primary issue</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[31]/td[1]</t>
+  </si>
+  <si>
+    <t>Gdivi</t>
+  </si>
+  <si>
+    <t>Gross Dividend - Common Stock</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[32]/td[1]</t>
+  </si>
+  <si>
+    <t>PFNI</t>
+  </si>
+  <si>
+    <t>Pro forma net income</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[34]/td[1]</t>
+  </si>
+  <si>
+    <t>IntExp</t>
+  </si>
+  <si>
+    <t>Interest expense, supplemental</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[35]/td[1]</t>
+  </si>
+  <si>
+    <t>Dep</t>
+  </si>
+  <si>
+    <t>Depreciation, supplemental</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[37]/td[1]</t>
+  </si>
+  <si>
+    <t>TotSpeItems</t>
+  </si>
+  <si>
+    <t>Total special items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[38]/td[1]</t>
+  </si>
+  <si>
+    <t>NormIncomeBT</t>
+  </si>
+  <si>
+    <t>Normalized income before taxes</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[40]/td[1]</t>
+  </si>
+  <si>
+    <t>Effect of special items on income taxes</t>
+  </si>
+  <si>
+    <t>EoSIoIT</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[41]/td[1]</t>
+  </si>
+  <si>
+    <t>ITeSI</t>
+  </si>
+  <si>
+    <t>Income tax excluding impact of special items</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[42]/td[1]</t>
+  </si>
+  <si>
+    <t>NormIncomeAT</t>
+  </si>
+  <si>
+    <t>Normalized income after tax</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[43]/td[1]</t>
+  </si>
+  <si>
+    <t>NormIncomeCom</t>
+  </si>
+  <si>
+    <t>Normalized income avail. to common</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[44]/td[1]</t>
+  </si>
+  <si>
+    <t>BNormEPS</t>
+  </si>
+  <si>
+    <t>Basic normalized EPS</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[45]/td[1]</t>
+  </si>
+  <si>
+    <t>DNormEPS</t>
+  </si>
+  <si>
+    <t>Diluted normalized EPS</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[46]/td[1]</t>
+  </si>
+  <si>
+    <t>CashFlow Statement Annual</t>
+  </si>
+  <si>
+    <t>http://markets.ft.com/data/equities/tearsheet/financials?s=DEB:LSE&amp;subView=CashFlow&amp;periodType=a</t>
+  </si>
+  <si>
+    <t>Cash Flow Currency</t>
+  </si>
+  <si>
+    <t>CFStatementDate</t>
+  </si>
+  <si>
+    <t>Cash Flow Statement Date</t>
+  </si>
+  <si>
+    <t>Depreciation/depletion</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[3]/td[1]</t>
+  </si>
+  <si>
+    <t>NonCashItms</t>
+  </si>
+  <si>
+    <t>Non Cash Items</t>
+  </si>
+  <si>
+    <t>CashTaxPaid</t>
+  </si>
+  <si>
+    <t>Cash taxes paid, supplemental</t>
+  </si>
+  <si>
+    <t>CashIntPaid</t>
+  </si>
+  <si>
+    <t>Cash interest paid, supplemental</t>
+  </si>
+  <si>
+    <t>ChgWC</t>
+  </si>
+  <si>
+    <t>Changes in working capital</t>
+  </si>
+  <si>
+    <t>Total cash from operations</t>
+  </si>
+  <si>
+    <t>TotCashOpr</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Capital Expenditure</t>
+  </si>
+  <si>
+    <t>Other investing and cash flow items, total</t>
+  </si>
+  <si>
+    <t>OthrInvCFi</t>
+  </si>
+  <si>
+    <t>TotCashInv</t>
+  </si>
+  <si>
+    <t>Total cash from investing</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[12]/td[1]</t>
+  </si>
+  <si>
+    <t>FinCFi</t>
+  </si>
+  <si>
+    <t>Financing cash flow items</t>
+  </si>
+  <si>
+    <t>TotCashDivPaid</t>
+  </si>
+  <si>
+    <t>Total cash dividends paid</t>
+  </si>
+  <si>
+    <t>NetStock</t>
+  </si>
+  <si>
+    <t>Issuance (retirement) of stock, net</t>
+  </si>
+  <si>
+    <t>NetDebt</t>
+  </si>
+  <si>
+    <t>Issuance (retirement) of debt, net</t>
+  </si>
+  <si>
+    <t>TotCashFin</t>
+  </si>
+  <si>
+    <t>Total cash from financing</t>
+  </si>
+  <si>
+    <t>ForexEff</t>
+  </si>
+  <si>
+    <t>Foreign exchange effects</t>
+  </si>
+  <si>
+    <t>NetChgCash</t>
+  </si>
+  <si>
+    <t>Net change in cash</t>
+  </si>
+  <si>
+    <t>NetCashBegin</t>
+  </si>
+  <si>
+    <t>Net cash-begin balance/reserved for future use</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[22]/td[1]</t>
+  </si>
+  <si>
+    <t>NetCashEnd</t>
+  </si>
+  <si>
+    <t>Net cash-end balance/reserved for future use</t>
+  </si>
+  <si>
+    <t>DepD</t>
+  </si>
+  <si>
+    <t>CashIntPaidSup</t>
+  </si>
+  <si>
+    <t>DepSup</t>
+  </si>
+  <si>
+    <t>CashTaxPaidSup</t>
+  </si>
+  <si>
+    <t>https://markets.ft.com/data/equities/tearsheet/financials?s=DEB:LSE&amp;subView=BalanceSheet&amp;periodType=a</t>
+  </si>
+  <si>
+    <t>Balance Sheet Annual</t>
+  </si>
+  <si>
+    <t>BSCCY</t>
+  </si>
+  <si>
+    <t>Balance Sheet Currency</t>
+  </si>
+  <si>
+    <t>BSStatementDate</t>
+  </si>
+  <si>
+    <t>Balance Sheet Statement Date</t>
+  </si>
+  <si>
+    <t>ISDate</t>
+  </si>
+  <si>
+    <t>ISCCY</t>
+  </si>
+  <si>
+    <t>ISYear</t>
+  </si>
+  <si>
+    <t>CFCCY</t>
+  </si>
+  <si>
+    <t>CFYear</t>
+  </si>
+  <si>
+    <t>BSYear</t>
+  </si>
+  <si>
+    <t>CashEqu</t>
+  </si>
+  <si>
+    <t>Cash And Short Term Investments</t>
+  </si>
+  <si>
+    <t>NetRec</t>
+  </si>
+  <si>
+    <t>Total Receivables, Net</t>
+  </si>
+  <si>
+    <t>TotInventory</t>
+  </si>
+  <si>
+    <t>Total Inventory</t>
+  </si>
+  <si>
+    <t>PrePayExp</t>
+  </si>
+  <si>
+    <t>Prepaid expenses</t>
+  </si>
+  <si>
+    <t>OthrCurAsset</t>
+  </si>
+  <si>
+    <t>Other current assets, total</t>
+  </si>
+  <si>
+    <t>TotCurAssets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>NetPPE</t>
+  </si>
+  <si>
+    <t>Property, plant &amp; equipment, net</t>
+  </si>
+  <si>
+    <t>NetGoodwill</t>
+  </si>
+  <si>
+    <t>Goodwill, net</t>
+  </si>
+  <si>
+    <t>NetIntangible</t>
+  </si>
+  <si>
+    <t>Intangibles, net</t>
+  </si>
+  <si>
+    <t>LTI</t>
+  </si>
+  <si>
+    <t>Long term investments</t>
+  </si>
+  <si>
+    <t>LTNoteRec</t>
+  </si>
+  <si>
+    <t>Note receivable - long term</t>
+  </si>
+  <si>
+    <t>OthrLTAsset</t>
+  </si>
+  <si>
+    <t>Other long term assets</t>
+  </si>
+  <si>
+    <t>TotAssets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>AccPay</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>AccruedExp</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>STDebt</t>
+  </si>
+  <si>
+    <t>Notes payable/short-term debt</t>
+  </si>
+  <si>
+    <t>Current portion long-term debt/capital leases</t>
+  </si>
+  <si>
+    <t>Other current liabilities, total</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>TotCurLiab</t>
+  </si>
+  <si>
+    <t>OthrCurLiab</t>
+  </si>
+  <si>
+    <t>CurPLTDebt</t>
+  </si>
+  <si>
+    <t>TotLTDebt</t>
+  </si>
+  <si>
+    <t>Total long term debt</t>
+  </si>
+  <si>
+    <t>TotDebt</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Deferred income tax</t>
+  </si>
+  <si>
+    <t>DefIncTax</t>
+  </si>
+  <si>
+    <t>BSMinInt</t>
+  </si>
+  <si>
+    <t>Minority interest</t>
+  </si>
+  <si>
+    <t>TotOtherLiab</t>
+  </si>
+  <si>
+    <t>Other liabilities, total</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>TotLiab</t>
+  </si>
+  <si>
+    <t>CommonStock</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t>APaidinCapital</t>
+  </si>
+  <si>
+    <t>Additional paid-in capital</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[30]/td[1]</t>
+  </si>
+  <si>
+    <t>Retained earnings (accumulated deficit)</t>
+  </si>
+  <si>
+    <t>RetainedEarning</t>
+  </si>
+  <si>
+    <t>Treasury stock - common</t>
+  </si>
+  <si>
+    <t>TStock</t>
+  </si>
+  <si>
+    <t>Unrealized gain (loss)</t>
+  </si>
+  <si>
+    <t>UnRGorL</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[33]/td[1]</t>
+  </si>
+  <si>
+    <t>TotOtherEquity</t>
+  </si>
+  <si>
+    <t>Other equity, total</t>
+  </si>
+  <si>
+    <t>TotalEquity</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Total liabilities &amp; shareholders' equity</t>
+  </si>
+  <si>
+    <t>LiabPlusEquity</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/section[3]/div[1]/div/table/tbody/tr[36]/td[1]</t>
+  </si>
+  <si>
+    <t>TotComSharesOut</t>
+  </si>
+  <si>
+    <t>Total common shares outstanding</t>
+  </si>
+  <si>
+    <t>Treasury shares - common primary issue</t>
+  </si>
+  <si>
+    <t>TSharesCPI</t>
+  </si>
+  <si>
+    <t>Previous Date Close Price</t>
+  </si>
+  <si>
+    <t>NextDiviExDate</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[2]/div[3]/table/tbody/tr[5]/td/span</t>
+  </si>
+  <si>
+    <t>Next div ex-date</t>
+  </si>
+  <si>
+    <t>NextDiviPayDate</t>
+  </si>
+  <si>
+    <t>Next div pay-date</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[2]/div[3]/table/tbody/tr[6]/td/span</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +1105,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,13 +1157,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,17 +1453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -686,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
@@ -700,13 +1504,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -722,13 +1526,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -781,195 +1585,1375 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>79</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E26" r:id="rId2"/>
-    <hyperlink ref="E24" r:id="rId3"/>
+    <hyperlink ref="E28" r:id="rId2"/>
+    <hyperlink ref="E69" r:id="rId3"/>
+    <hyperlink ref="E94" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/FTXpath.xlsx
+++ b/FTXpath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="352">
   <si>
     <t>Column</t>
   </si>
@@ -1044,6 +1044,42 @@
   </si>
   <si>
     <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[2]/div[3]/table/tbody/tr[6]/td/span</t>
+  </si>
+  <si>
+    <t>YearLow</t>
+  </si>
+  <si>
+    <t>52 week Low</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[1]/div[2]/div/div/div[2]/span[1]/span[1]</t>
+  </si>
+  <si>
+    <t>YearHigh</t>
+  </si>
+  <si>
+    <t>52 week High</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[1]/div[2]/div/div/div[2]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>YearLowDate</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[1]/div[2]/div/div/div[2]/span[1]/span[2]</t>
+  </si>
+  <si>
+    <t>YearHighDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 week Low Date </t>
+  </si>
+  <si>
+    <t>52 Week High Date</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/section/div[4]/div/div/div[1]/div[2]/div/div/div[2]/span[2]/span[2]</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1465,10 +1501,11 @@
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="82.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1481,11 +1518,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1498,11 +1535,11 @@
       <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
@@ -1513,7 +1550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1534,9 +1571,9 @@
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1591,1367 +1628,1411 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="2" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="2" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="2" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="2" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="2" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="2" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="2" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="2" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="2" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E28" r:id="rId2"/>
-    <hyperlink ref="E69" r:id="rId3"/>
-    <hyperlink ref="E94" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F32" r:id="rId2"/>
+    <hyperlink ref="F73" r:id="rId3"/>
+    <hyperlink ref="F98" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
